--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fn1-Itga2b.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fn1-Itga2b.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H2">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I2">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J2">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.905037756275199</v>
+        <v>1.534622</v>
       </c>
       <c r="N2">
-        <v>0.905037756275199</v>
+        <v>4.603866</v>
       </c>
       <c r="O2">
-        <v>0.1600974927131051</v>
+        <v>0.2309523132298141</v>
       </c>
       <c r="P2">
-        <v>0.1600974927131051</v>
+        <v>0.2390161013490993</v>
       </c>
       <c r="Q2">
-        <v>15.2926427467721</v>
+        <v>37.93859820951399</v>
       </c>
       <c r="R2">
-        <v>15.2926427467721</v>
+        <v>341.447383885626</v>
       </c>
       <c r="S2">
-        <v>0.001721570434777449</v>
+        <v>0.003096718088123156</v>
       </c>
       <c r="T2">
-        <v>0.001721570434777449</v>
+        <v>0.003216746918828833</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H3">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I3">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J3">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.81019167677124</v>
+        <v>3.080022666666667</v>
       </c>
       <c r="N3">
-        <v>2.81019167677124</v>
+        <v>9.240068000000001</v>
       </c>
       <c r="O3">
-        <v>0.4971114612344499</v>
+        <v>0.4635267575122261</v>
       </c>
       <c r="P3">
-        <v>0.4971114612344499</v>
+        <v>0.4797109710753027</v>
       </c>
       <c r="Q3">
-        <v>47.48449118817465</v>
+        <v>76.14366432050532</v>
       </c>
       <c r="R3">
-        <v>47.48449118817465</v>
+        <v>685.292978884548</v>
       </c>
       <c r="S3">
-        <v>0.005345570251895586</v>
+        <v>0.006215186478296273</v>
       </c>
       <c r="T3">
-        <v>0.005345570251895586</v>
+        <v>0.006456087181679246</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H4">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I4">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J4">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.260510069598938</v>
+        <v>0.3168843333333333</v>
       </c>
       <c r="N4">
-        <v>0.260510069598938</v>
+        <v>0.950653</v>
       </c>
       <c r="O4">
-        <v>0.04608317021044195</v>
+        <v>0.04768937875882193</v>
       </c>
       <c r="P4">
-        <v>0.04608317021044195</v>
+        <v>0.04935447161056063</v>
       </c>
       <c r="Q4">
-        <v>4.40190190816956</v>
+        <v>7.833946992303665</v>
       </c>
       <c r="R4">
-        <v>4.40190190816956</v>
+        <v>70.50552293073299</v>
       </c>
       <c r="S4">
-        <v>0.0004955444462661443</v>
+        <v>0.000639441795358193</v>
       </c>
       <c r="T4">
-        <v>0.0004955444462661443</v>
+        <v>0.0006642265671123761</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H5">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I5">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J5">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.03291747429564</v>
+        <v>1.040697</v>
       </c>
       <c r="N5">
-        <v>1.03291747429564</v>
+        <v>3.122091</v>
       </c>
       <c r="O5">
-        <v>0.1827188939551833</v>
+        <v>0.1566192714045073</v>
       </c>
       <c r="P5">
-        <v>0.1827188939551833</v>
+        <v>0.1620876930121578</v>
       </c>
       <c r="Q5">
-        <v>17.45345739642071</v>
+        <v>25.72788956553899</v>
       </c>
       <c r="R5">
-        <v>17.45345739642071</v>
+        <v>231.551006089851</v>
       </c>
       <c r="S5">
-        <v>0.001964824310348055</v>
+        <v>0.002100025429164644</v>
       </c>
       <c r="T5">
-        <v>0.001964824310348055</v>
+        <v>0.002181422440304134</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H6">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I6">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J6">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.644384435125492</v>
+        <v>0.672531</v>
       </c>
       <c r="N6">
-        <v>0.644384435125492</v>
+        <v>1.345062</v>
       </c>
       <c r="O6">
-        <v>0.1139889818868199</v>
+        <v>0.1012122790946305</v>
       </c>
       <c r="P6">
-        <v>0.1139889818868199</v>
+        <v>0.06983076295287964</v>
       </c>
       <c r="Q6">
-        <v>10.88832028236206</v>
+        <v>16.626168132897</v>
       </c>
       <c r="R6">
-        <v>10.88832028236206</v>
+        <v>99.75700879738199</v>
       </c>
       <c r="S6">
-        <v>0.001225753494206144</v>
+        <v>0.001357102213133628</v>
       </c>
       <c r="T6">
-        <v>0.001225753494206144</v>
+        <v>0.0009398023409312407</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H7">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I7">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J7">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.905037756275199</v>
+        <v>1.534622</v>
       </c>
       <c r="N7">
-        <v>0.905037756275199</v>
+        <v>4.603866</v>
       </c>
       <c r="O7">
-        <v>0.1600974927131051</v>
+        <v>0.2309523132298141</v>
       </c>
       <c r="P7">
-        <v>0.1600974927131051</v>
+        <v>0.2390161013490993</v>
       </c>
       <c r="Q7">
-        <v>1212.499042411137</v>
+        <v>2237.910082785751</v>
       </c>
       <c r="R7">
-        <v>1212.499042411137</v>
+        <v>20141.19074507176</v>
       </c>
       <c r="S7">
-        <v>0.1364971730639284</v>
+        <v>0.1826682313005945</v>
       </c>
       <c r="T7">
-        <v>0.1364971730639284</v>
+        <v>0.1897484541643338</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H8">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I8">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J8">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.81019167677124</v>
+        <v>3.080022666666667</v>
       </c>
       <c r="N8">
-        <v>2.81019167677124</v>
+        <v>9.240068000000001</v>
       </c>
       <c r="O8">
-        <v>0.4971114612344499</v>
+        <v>0.4635267575122261</v>
       </c>
       <c r="P8">
-        <v>0.4971114612344499</v>
+        <v>0.4797109710753027</v>
       </c>
       <c r="Q8">
-        <v>3764.875767283222</v>
+        <v>4491.538490222341</v>
       </c>
       <c r="R8">
-        <v>3764.875767283222</v>
+        <v>40423.84641200108</v>
       </c>
       <c r="S8">
-        <v>0.4238311794037652</v>
+        <v>0.3666194625684636</v>
       </c>
       <c r="T8">
-        <v>0.4238311794037652</v>
+        <v>0.3808296373902559</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H9">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I9">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J9">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.260510069598938</v>
+        <v>0.3168843333333333</v>
       </c>
       <c r="N9">
-        <v>0.260510069598938</v>
+        <v>0.950653</v>
       </c>
       <c r="O9">
-        <v>0.04608317021044195</v>
+        <v>0.04768937875882193</v>
       </c>
       <c r="P9">
-        <v>0.04608317021044195</v>
+        <v>0.04935447161056063</v>
       </c>
       <c r="Q9">
-        <v>349.0110857111285</v>
+        <v>462.1063979556578</v>
       </c>
       <c r="R9">
-        <v>349.0110857111285</v>
+        <v>4158.957581600921</v>
       </c>
       <c r="S9">
-        <v>0.03928994984837927</v>
+        <v>0.03771919123853824</v>
       </c>
       <c r="T9">
-        <v>0.03928994984837927</v>
+        <v>0.03918118754904822</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H10">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I10">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J10">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.03291747429564</v>
+        <v>1.040697</v>
       </c>
       <c r="N10">
-        <v>1.03291747429564</v>
+        <v>3.122091</v>
       </c>
       <c r="O10">
-        <v>0.1827188939551833</v>
+        <v>0.1566192714045073</v>
       </c>
       <c r="P10">
-        <v>0.1827188939551833</v>
+        <v>0.1620876930121578</v>
       </c>
       <c r="Q10">
-        <v>1383.822320990956</v>
+        <v>1517.628646940343</v>
       </c>
       <c r="R10">
-        <v>1383.822320990956</v>
+        <v>13658.65782246309</v>
       </c>
       <c r="S10">
-        <v>0.1557839043422363</v>
+        <v>0.1238756386327284</v>
       </c>
       <c r="T10">
-        <v>0.1557839043422363</v>
+        <v>0.1286770598906178</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H11">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I11">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J11">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.644384435125492</v>
+        <v>0.672531</v>
       </c>
       <c r="N11">
-        <v>0.644384435125492</v>
+        <v>1.345062</v>
       </c>
       <c r="O11">
-        <v>0.1139889818868199</v>
+        <v>0.1012122790946305</v>
       </c>
       <c r="P11">
-        <v>0.1139889818868199</v>
+        <v>0.06983076295287964</v>
       </c>
       <c r="Q11">
-        <v>863.2960394380741</v>
+        <v>980.7391695713889</v>
       </c>
       <c r="R11">
-        <v>863.2960394380741</v>
+        <v>5884.435017428334</v>
       </c>
       <c r="S11">
-        <v>0.09718561811500893</v>
+        <v>0.080052317942021</v>
       </c>
       <c r="T11">
-        <v>0.09718561811500893</v>
+        <v>0.05543676450513268</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H12">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I12">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J12">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.905037756275199</v>
+        <v>1.534622</v>
       </c>
       <c r="N12">
-        <v>0.905037756275199</v>
+        <v>4.603866</v>
       </c>
       <c r="O12">
-        <v>0.1600974927131051</v>
+        <v>0.2309523132298141</v>
       </c>
       <c r="P12">
-        <v>0.1600974927131051</v>
+        <v>0.2390161013490993</v>
       </c>
       <c r="Q12">
-        <v>49.64075018039239</v>
+        <v>92.23045992938</v>
       </c>
       <c r="R12">
-        <v>49.64075018039239</v>
+        <v>830.07413936442</v>
       </c>
       <c r="S12">
-        <v>0.005588311273980119</v>
+        <v>0.007528262693364488</v>
       </c>
       <c r="T12">
-        <v>0.005588311273980119</v>
+        <v>0.007820058246790976</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H13">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I13">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J13">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.81019167677124</v>
+        <v>3.080022666666667</v>
       </c>
       <c r="N13">
-        <v>2.81019167677124</v>
+        <v>9.240068000000001</v>
       </c>
       <c r="O13">
-        <v>0.4971114612344499</v>
+        <v>0.4635267575122261</v>
       </c>
       <c r="P13">
-        <v>0.4971114612344499</v>
+        <v>0.4797109710753027</v>
       </c>
       <c r="Q13">
-        <v>154.137241256928</v>
+        <v>185.1087154619067</v>
       </c>
       <c r="R13">
-        <v>154.137241256928</v>
+        <v>1665.97843915716</v>
       </c>
       <c r="S13">
-        <v>0.01735201180332918</v>
+        <v>0.01510940136149728</v>
       </c>
       <c r="T13">
-        <v>0.01735201180332918</v>
+        <v>0.01569504194177446</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H14">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I14">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J14">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.260510069598938</v>
+        <v>0.3168843333333333</v>
       </c>
       <c r="N14">
-        <v>0.260510069598938</v>
+        <v>0.950653</v>
       </c>
       <c r="O14">
-        <v>0.04608317021044195</v>
+        <v>0.04768937875882193</v>
       </c>
       <c r="P14">
-        <v>0.04608317021044195</v>
+        <v>0.04935447161056063</v>
       </c>
       <c r="Q14">
-        <v>14.2888130299232</v>
+        <v>19.04468188762333</v>
       </c>
       <c r="R14">
-        <v>14.2888130299232</v>
+        <v>171.40213698861</v>
       </c>
       <c r="S14">
-        <v>0.001608564227106582</v>
+        <v>0.001554512123992104</v>
       </c>
       <c r="T14">
-        <v>0.001608564227106582</v>
+        <v>0.00161476503279778</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H15">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I15">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J15">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.03291747429564</v>
+        <v>1.040697</v>
       </c>
       <c r="N15">
-        <v>1.03291747429564</v>
+        <v>3.122091</v>
       </c>
       <c r="O15">
-        <v>0.1827188939551833</v>
+        <v>0.1566192714045073</v>
       </c>
       <c r="P15">
-        <v>0.1827188939551833</v>
+        <v>0.1620876930121578</v>
       </c>
       <c r="Q15">
-        <v>56.65487206798959</v>
+        <v>62.54567115363</v>
       </c>
       <c r="R15">
-        <v>56.65487206798959</v>
+        <v>562.9110403826701</v>
       </c>
       <c r="S15">
-        <v>0.006377926585575725</v>
+        <v>0.005105257451148455</v>
       </c>
       <c r="T15">
-        <v>0.006377926585575725</v>
+        <v>0.00530313729195895</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H16">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I16">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J16">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.644384435125492</v>
+        <v>0.672531</v>
       </c>
       <c r="N16">
-        <v>0.644384435125492</v>
+        <v>1.345062</v>
       </c>
       <c r="O16">
-        <v>0.1139889818868199</v>
+        <v>0.1012122790946305</v>
       </c>
       <c r="P16">
-        <v>0.1139889818868199</v>
+        <v>0.06983076295287964</v>
       </c>
       <c r="Q16">
-        <v>35.34407989324941</v>
+        <v>40.41897186849</v>
       </c>
       <c r="R16">
-        <v>35.34407989324941</v>
+        <v>242.51383121094</v>
       </c>
       <c r="S16">
-        <v>0.003978862515536997</v>
+        <v>0.003299177281070591</v>
       </c>
       <c r="T16">
-        <v>0.003978862515536997</v>
+        <v>0.002284702288369202</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H17">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I17">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J17">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.905037756275199</v>
+        <v>1.534622</v>
       </c>
       <c r="N17">
-        <v>0.905037756275199</v>
+        <v>4.603866</v>
       </c>
       <c r="O17">
-        <v>0.1600974927131051</v>
+        <v>0.2309523132298141</v>
       </c>
       <c r="P17">
-        <v>0.1600974927131051</v>
+        <v>0.2390161013490993</v>
       </c>
       <c r="Q17">
-        <v>126.1810024991666</v>
+        <v>429.9533745366421</v>
       </c>
       <c r="R17">
-        <v>126.1810024991666</v>
+        <v>3869.580370829778</v>
       </c>
       <c r="S17">
-        <v>0.01420483607249612</v>
+        <v>0.03509471764413579</v>
       </c>
       <c r="T17">
-        <v>0.01420483607249612</v>
+        <v>0.03645498932625217</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H18">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I18">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J18">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.81019167677124</v>
+        <v>3.080022666666667</v>
       </c>
       <c r="N18">
-        <v>2.81019167677124</v>
+        <v>9.240068000000001</v>
       </c>
       <c r="O18">
-        <v>0.4971114612344499</v>
+        <v>0.4635267575122261</v>
       </c>
       <c r="P18">
-        <v>0.4971114612344499</v>
+        <v>0.4797109710753027</v>
       </c>
       <c r="Q18">
-        <v>391.7989062126888</v>
+        <v>862.9265963753162</v>
       </c>
       <c r="R18">
-        <v>391.7989062126888</v>
+        <v>7766.339367377846</v>
       </c>
       <c r="S18">
-        <v>0.04410679203607758</v>
+        <v>0.07043592873307228</v>
       </c>
       <c r="T18">
-        <v>0.04410679203607758</v>
+        <v>0.0731660261862192</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H19">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I19">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J19">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.260510069598938</v>
+        <v>0.3168843333333333</v>
       </c>
       <c r="N19">
-        <v>0.260510069598938</v>
+        <v>0.950653</v>
       </c>
       <c r="O19">
-        <v>0.04608317021044195</v>
+        <v>0.04768937875882193</v>
       </c>
       <c r="P19">
-        <v>0.04608317021044195</v>
+        <v>0.04935447161056063</v>
       </c>
       <c r="Q19">
-        <v>36.32049769769637</v>
+        <v>88.78113858296101</v>
       </c>
       <c r="R19">
-        <v>36.32049769769637</v>
+        <v>799.0302472466491</v>
       </c>
       <c r="S19">
-        <v>0.004088782825058451</v>
+        <v>0.007246713655990558</v>
       </c>
       <c r="T19">
-        <v>0.004088782825058451</v>
+        <v>0.007527596365308983</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H20">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I20">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J20">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.03291747429564</v>
+        <v>1.040697</v>
       </c>
       <c r="N20">
-        <v>1.03291747429564</v>
+        <v>3.122091</v>
       </c>
       <c r="O20">
-        <v>0.1827188939551833</v>
+        <v>0.1566192714045073</v>
       </c>
       <c r="P20">
-        <v>0.1827188939551833</v>
+        <v>0.1620876930121578</v>
       </c>
       <c r="Q20">
-        <v>144.0100830068569</v>
+        <v>291.570945170967</v>
       </c>
       <c r="R20">
-        <v>144.0100830068569</v>
+        <v>2624.138506538703</v>
       </c>
       <c r="S20">
-        <v>0.01621194618351898</v>
+        <v>0.02379932476407819</v>
       </c>
       <c r="T20">
-        <v>0.01621194618351898</v>
+        <v>0.02472178688097959</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H21">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I21">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J21">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.644384435125492</v>
+        <v>0.672531</v>
       </c>
       <c r="N21">
-        <v>0.644384435125492</v>
+        <v>1.345062</v>
       </c>
       <c r="O21">
-        <v>0.1139889818868199</v>
+        <v>0.1012122790946305</v>
       </c>
       <c r="P21">
-        <v>0.1139889818868199</v>
+        <v>0.06983076295287964</v>
       </c>
       <c r="Q21">
-        <v>89.84053256919564</v>
+        <v>188.422277883741</v>
       </c>
       <c r="R21">
-        <v>89.84053256919564</v>
+        <v>1130.533667302446</v>
       </c>
       <c r="S21">
-        <v>0.01011380487185146</v>
+        <v>0.01537986914818652</v>
       </c>
       <c r="T21">
-        <v>0.01011380487185146</v>
+        <v>0.01065066204210709</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H22">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I22">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J22">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.905037756275199</v>
+        <v>1.534622</v>
       </c>
       <c r="N22">
-        <v>0.905037756275199</v>
+        <v>4.603866</v>
       </c>
       <c r="O22">
-        <v>0.1600974927131051</v>
+        <v>0.2309523132298141</v>
       </c>
       <c r="P22">
-        <v>0.1600974927131051</v>
+        <v>0.2390161013490993</v>
       </c>
       <c r="Q22">
-        <v>18.52631971010225</v>
+        <v>31.416846038124</v>
       </c>
       <c r="R22">
-        <v>18.52631971010225</v>
+        <v>188.501076228744</v>
       </c>
       <c r="S22">
-        <v>0.002085601867922982</v>
+        <v>0.002564383503596118</v>
       </c>
       <c r="T22">
-        <v>0.002085601867922982</v>
+        <v>0.001775852692893505</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H23">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I23">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J23">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.81019167677124</v>
+        <v>3.080022666666667</v>
       </c>
       <c r="N23">
-        <v>2.81019167677124</v>
+        <v>9.240068000000001</v>
       </c>
       <c r="O23">
-        <v>0.4971114612344499</v>
+        <v>0.4635267575122261</v>
       </c>
       <c r="P23">
-        <v>0.4971114612344499</v>
+        <v>0.4797109710753027</v>
       </c>
       <c r="Q23">
-        <v>57.52523481981832</v>
+        <v>63.05435339295201</v>
       </c>
       <c r="R23">
-        <v>57.52523481981832</v>
+        <v>378.3261203577121</v>
       </c>
       <c r="S23">
-        <v>0.00647590773938226</v>
+        <v>0.005146778370896628</v>
       </c>
       <c r="T23">
-        <v>0.00647590773938226</v>
+        <v>0.003564178375373894</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H24">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I24">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J24">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.260510069598938</v>
+        <v>0.3168843333333333</v>
       </c>
       <c r="N24">
-        <v>0.260510069598938</v>
+        <v>0.950653</v>
       </c>
       <c r="O24">
-        <v>0.04608317021044195</v>
+        <v>0.04768937875882193</v>
       </c>
       <c r="P24">
-        <v>0.04608317021044195</v>
+        <v>0.04935447161056063</v>
       </c>
       <c r="Q24">
-        <v>5.332697783741258</v>
+        <v>6.487269381142</v>
       </c>
       <c r="R24">
-        <v>5.332697783741258</v>
+        <v>38.923616286852</v>
       </c>
       <c r="S24">
-        <v>0.0006003288636314986</v>
+        <v>0.0005295199449428285</v>
       </c>
       <c r="T24">
-        <v>0.0006003288636314986</v>
+        <v>0.0003666960962932652</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H25">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I25">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J25">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.03291747429564</v>
+        <v>1.040697</v>
       </c>
       <c r="N25">
-        <v>1.03291747429564</v>
+        <v>3.122091</v>
       </c>
       <c r="O25">
-        <v>0.1827188939551833</v>
+        <v>0.1566192714045073</v>
       </c>
       <c r="P25">
-        <v>0.1827188939551833</v>
+        <v>0.1620876930121578</v>
       </c>
       <c r="Q25">
-        <v>21.144045350892</v>
+        <v>21.305192693274</v>
       </c>
       <c r="R25">
-        <v>21.144045350892</v>
+        <v>127.831156159644</v>
       </c>
       <c r="S25">
-        <v>0.002380292533504229</v>
+        <v>0.001739025127387702</v>
       </c>
       <c r="T25">
-        <v>0.002380292533504229</v>
+        <v>0.001204286508297282</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H26">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I26">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J26">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.644384435125492</v>
+        <v>0.672531</v>
       </c>
       <c r="N26">
-        <v>0.644384435125492</v>
+        <v>1.345062</v>
       </c>
       <c r="O26">
-        <v>0.1139889818868199</v>
+        <v>0.1012122790946305</v>
       </c>
       <c r="P26">
-        <v>0.1139889818868199</v>
+        <v>0.06983076295287964</v>
       </c>
       <c r="Q26">
-        <v>13.19068953596058</v>
+        <v>13.768082878302</v>
       </c>
       <c r="R26">
-        <v>13.19068953596058</v>
+        <v>55.07233151320801</v>
       </c>
       <c r="S26">
-        <v>0.001484942890216358</v>
+        <v>0.001123812510218804</v>
       </c>
       <c r="T26">
-        <v>0.001484942890216358</v>
+        <v>0.0005188317763394338</v>
       </c>
     </row>
   </sheetData>
